--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -125,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -196,12 +196,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,316 +511,320 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.8055555555555557E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -81,12 +81,6 @@
     <t>Shadows logic</t>
   </si>
   <si>
-    <t>Modify cell component w/ boolean hasPot + system</t>
-  </si>
-  <si>
-    <t>Shadow render system</t>
-  </si>
-  <si>
     <t>Bonuses</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>Game over logic</t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>Making</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +526,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C3" s="5">
-        <v>1.8055555555555557E-2</v>
+        <v>9.5138888888888884E-2</v>
       </c>
       <c r="D3" s="5">
-        <v>1.8055555555555557E-2</v>
+        <v>9.5138888888888884E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,27 +676,35 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="5">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3.9583333333333331E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -704,7 +712,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>1.3888888888888888E-2</v>
@@ -714,7 +722,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>1.3888888888888888E-2</v>
@@ -724,7 +732,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>1.3888888888888888E-2</v>
@@ -734,7 +742,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>1.3888888888888888E-2</v>
@@ -744,7 +752,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>4.1666666666666664E-2</v>
@@ -754,7 +762,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>1.3888888888888888E-2</v>
@@ -764,7 +772,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -772,7 +780,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5">
         <v>2.0833333333333332E-2</v>
@@ -782,7 +790,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -790,7 +798,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5">
         <v>8.3333333333333329E-2</v>
@@ -800,7 +808,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5">
         <v>2.0833333333333332E-2</v>
@@ -810,7 +818,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -818,7 +826,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5">
         <v>1.3888888888888888E-2</v>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,8 +549,12 @@
       <c r="B5" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="5">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.10208333333333335</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -114,10 +114,13 @@
     <t>Game over logic</t>
   </si>
   <si>
-    <t>Thinking</t>
-  </si>
-  <si>
-    <t>Making</t>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Actual making</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +157,56 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,25 +229,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Вывод" xfId="2" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,7 +551,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,24 +577,24 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
@@ -536,7 +602,7 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4" s="3"/>
@@ -546,13 +612,13 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.10208333333333335</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.10208333333333335</v>
       </c>
     </row>
@@ -560,7 +626,7 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C6" s="3"/>
@@ -570,25 +636,25 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C9" s="3"/>
@@ -598,7 +664,7 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C10" s="3"/>
@@ -608,25 +674,25 @@
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C13" s="3"/>
@@ -636,7 +702,7 @@
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C14" s="3"/>
@@ -646,79 +712,79 @@
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4.1666666666666666E-3</v>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.3750000000000004E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3.9583333333333331E-2</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C22" s="3"/>
@@ -728,7 +794,7 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="3"/>
@@ -738,7 +804,7 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C24" s="3"/>
@@ -748,7 +814,7 @@
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C25" s="3"/>
@@ -758,7 +824,7 @@
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C26" s="3"/>
@@ -768,43 +834,43 @@
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C31" s="3"/>
@@ -814,25 +880,25 @@
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C34" s="3"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -261,10 +261,10 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -577,12 +577,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -643,12 +643,12 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -681,12 +681,12 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -719,12 +719,12 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -737,12 +737,12 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -765,20 +765,20 @@
       <c r="B20" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C20" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20" s="7">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D20" s="7">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -841,12 +841,12 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -859,12 +859,12 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -887,12 +887,12 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -48,9 +48,6 @@
     <t>Create gran gran textures</t>
   </si>
   <si>
-    <t>Time spent</t>
-  </si>
-  <si>
     <t>Gran gran render system</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Actual making</t>
+  </si>
+  <si>
+    <t>Remake background atlas</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +182,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +211,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,13 +258,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,12 +276,15 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
+    <cellStyle name="Нейтральный" xfId="4" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
     <cellStyle name="Хороший" xfId="3" builtinId="26"/>
@@ -548,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,10 +576,9 @@
     <col min="1" max="1" width="56.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,19 +588,15 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -594,21 +606,19 @@
       <c r="C3" s="4">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="D3" s="4">
-        <v>9.5138888888888884E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <v>5.486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -618,303 +628,286 @@
       <c r="C5" s="4">
         <v>0.10208333333333335</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.10208333333333335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.6388888888888889E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.3750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C21" s="7">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4.3750000000000004E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4.3750000000000004E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,7 +276,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,7 +567,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,11 +589,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -614,7 +613,7 @@
       <c r="B4" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>5.486111111111111E-2</v>
       </c>
     </row>
@@ -643,10 +642,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="8">
-        <v>8.8888888888888892E-2</v>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.15277777777777776</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,11 +660,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -701,11 +700,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -735,11 +734,11 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -751,11 +750,11 @@
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -780,11 +779,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -841,11 +840,11 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -857,11 +856,11 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -882,11 +881,11 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Remake background atlas</t>
+  </si>
+  <si>
+    <t>+1:19</t>
+  </si>
+  <si>
+    <t>Death textures</t>
   </si>
 </sst>
 </file>
@@ -265,19 +271,49 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,327 +613,423 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="10">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.125</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="6">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>3.2638888888888891E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1.8055555555555557E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>5.7638888888888885E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="E23" s="10">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="E30" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4.3750000000000004E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="C32" s="2"/>
+      <c r="E32" s="10">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C33" s="2"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="E35" s="10">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9">
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C35" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="E36" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="21">
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A31:C31"/>
@@ -907,6 +1039,18 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -271,7 +271,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,34 +286,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,11 +628,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -641,13 +644,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <v>0.52777777777777779</v>
       </c>
       <c r="F3" s="16">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -661,9 +664,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -675,9 +678,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -689,9 +692,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -703,9 +706,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -717,16 +720,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -738,7 +741,7 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F10" s="16">
@@ -755,7 +758,7 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,15 +771,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -788,7 +791,7 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="16">
@@ -805,7 +808,7 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,15 +821,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -841,16 +844,16 @@
       <c r="E18" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="10">
         <v>0.12152777777777778</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -862,10 +865,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="18">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -879,15 +882,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -897,7 +900,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="10">
+      <c r="E23" s="14">
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -909,7 +912,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -919,7 +922,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -929,7 +932,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -939,7 +942,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -949,14 +952,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -965,17 +968,22 @@
       <c r="B30" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="6">
+        <v>1.4583333333333332E-2</v>
+      </c>
       <c r="E30" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="F30" s="20">
+        <v>1.4583333333333332E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -985,7 +993,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="E32" s="10">
+      <c r="E32" s="14">
         <v>0.10416666666666667</v>
       </c>
     </row>
@@ -997,14 +1005,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1014,7 +1022,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="E35" s="10">
+      <c r="E35" s="14">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
@@ -1026,10 +1034,22 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A31:C31"/>
@@ -1039,18 +1059,6 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,6 +263,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -271,7 +280,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,35 +298,44 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -605,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,11 +646,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -644,13 +662,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="18">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -664,9 +682,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -678,9 +696,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -692,9 +710,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -706,9 +724,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -720,16 +738,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -741,10 +759,10 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="18">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
@@ -758,8 +776,8 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -771,15 +789,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -791,10 +809,10 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="18">
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
@@ -808,8 +826,8 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -821,15 +839,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -849,11 +867,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -865,10 +883,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="14">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -882,15 +900,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -900,9 +918,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>0.1111111111111111</v>
       </c>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -912,7 +931,8 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -922,7 +942,8 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -932,7 +953,8 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -942,7 +964,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -952,14 +975,15 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -974,47 +998,55 @@
       <c r="E30" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="11">
         <v>1.4583333333333332E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="E32" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E32" s="12">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="22">
+        <v>6.805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1022,11 +1054,12 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>9.7222222222222224E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1034,22 +1067,11 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+  <mergeCells count="24">
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A31:C31"/>
@@ -1059,6 +1081,21 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,42 +301,43 @@
     <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -646,11 +647,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -662,13 +663,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -682,9 +683,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -696,9 +697,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -710,9 +711,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -724,9 +725,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -738,16 +739,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -759,10 +760,10 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
@@ -776,8 +777,8 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -789,15 +790,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -809,10 +810,10 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
@@ -826,8 +827,8 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -839,15 +840,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -867,11 +868,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -883,10 +884,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="19">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -900,15 +901,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -917,11 +918,11 @@
       <c r="B23" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="E23" s="12">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="E23" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -930,9 +931,11 @@
       <c r="B24" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="21"/>
+      <c r="C24" s="6">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -941,9 +944,11 @@
       <c r="B25" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="6">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -952,9 +957,9 @@
       <c r="B26" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -963,9 +968,9 @@
       <c r="B27" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -974,16 +979,18 @@
       <c r="B28" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="21"/>
+      <c r="C28" s="3">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1003,11 +1010,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1019,10 +1026,10 @@
       <c r="C32" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="15">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -1036,15 +1043,15 @@
       <c r="C33" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1054,10 +1061,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="E35" s="12">
+      <c r="E35" s="15">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1067,11 +1074,26 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A31:C31"/>
@@ -1081,21 +1103,6 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -127,6 +127,96 @@
   </si>
   <si>
     <t>Death textures</t>
+  </si>
+  <si>
+    <t>Bonus render system</t>
+  </si>
+  <si>
+    <t>UI Skin</t>
+  </si>
+  <si>
+    <t>Button texture</t>
+  </si>
+  <si>
+    <t>Loading screen textures</t>
+  </si>
+  <si>
+    <t>Menu background texture</t>
+  </si>
+  <si>
+    <t>Inactive button texture</t>
+  </si>
+  <si>
+    <t>Checkbox texture</t>
+  </si>
+  <si>
+    <t>Dialog window texture</t>
+  </si>
+  <si>
+    <t>Screens</t>
+  </si>
+  <si>
+    <t>Menu screen</t>
+  </si>
+  <si>
+    <t>Play screen</t>
+  </si>
+  <si>
+    <t>Levels screen</t>
+  </si>
+  <si>
+    <t>Options screen</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>GameConfigs class</t>
+  </si>
+  <si>
+    <t>Research about account binding</t>
+  </si>
+  <si>
+    <t>Account binding logic</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Locked function window</t>
+  </si>
+  <si>
+    <t>Death window</t>
+  </si>
+  <si>
+    <t>Victory window</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Fixing bug with loading sounds</t>
+  </si>
+  <si>
+    <t>Research for music and sounds</t>
+  </si>
+  <si>
+    <t>Music play logic</t>
+  </si>
+  <si>
+    <t>Sounds logic</t>
+  </si>
+  <si>
+    <t>Music on/off in options screen</t>
+  </si>
+  <si>
+    <t>Ads logic</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Ads logic build in</t>
   </si>
 </sst>
 </file>
@@ -225,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,6 +362,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -280,7 +433,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,43 +454,60 @@
     <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -622,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,11 +817,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -663,13 +833,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="22">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -683,9 +853,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -697,9 +867,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -711,9 +881,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -725,9 +895,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -739,16 +909,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -760,10 +930,10 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="22">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
@@ -777,8 +947,8 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -790,15 +960,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -810,10 +980,10 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="22">
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
@@ -827,8 +997,8 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -840,15 +1010,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -868,11 +1038,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -884,10 +1054,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="15">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -901,15 +1071,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -918,11 +1088,13 @@
       <c r="B23" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="E23" s="15">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F23" s="23"/>
+      <c r="C23" s="12"/>
+      <c r="E23" s="25">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F23" s="17">
+        <v>3.4027777777777775E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -934,8 +1106,8 @@
       <c r="C24" s="6">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -947,8 +1119,8 @@
       <c r="C25" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="23"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -957,9 +1129,9 @@
       <c r="B26" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="12"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -968,9 +1140,9 @@
       <c r="B27" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="23"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -982,111 +1154,450 @@
       <c r="C28" s="3">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="28">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B31" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C31" s="6">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>1.4583333333333332E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="F32" s="21">
-        <v>6.805555555555555E-2</v>
-      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F33" s="17">
+        <v>6.805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C34" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="E35" s="15">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="F35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="E36" s="13">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B37" s="9">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="23"/>
+      <c r="C37" s="2"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="E39" s="13">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="E46" s="13">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="E51" s="13">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="E55" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="E59" s="13">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="33"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="33"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="E65" s="13">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="F35:F36"/>
+  <mergeCells count="42">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
@@ -1094,15 +1605,14 @@
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -455,57 +455,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,11 +817,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -833,13 +833,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="19">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="25">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -853,9 +853,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -867,9 +867,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -881,9 +881,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -895,9 +895,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -909,16 +909,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -930,10 +930,10 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="25">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
@@ -947,8 +947,8 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -960,15 +960,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -980,10 +980,10 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="25">
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
@@ -997,8 +997,8 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1010,15 +1010,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1038,11 +1038,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1054,10 +1054,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="27">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -1071,15 +1071,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1089,10 +1089,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="E23" s="25">
+      <c r="E23" s="31">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="29">
         <v>3.4027777777777775E-2</v>
       </c>
     </row>
@@ -1106,8 +1106,8 @@
       <c r="C24" s="6">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1119,8 +1119,8 @@
       <c r="C25" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1130,8 +1130,8 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="18"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1141,8 +1141,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="18"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1154,28 +1154,28 @@
       <c r="C28" s="3">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="18"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C29" s="6">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1195,11 +1195,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1211,10 +1211,10 @@
       <c r="C33" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="19">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="29">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -1228,15 +1228,15 @@
       <c r="C34" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1246,10 +1246,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="13">
+      <c r="E36" s="19">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1259,336 +1259,339 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="E39" s="13">
+      <c r="C39" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E39" s="19">
         <v>0.24305555555555555</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="9">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="19"/>
+      <c r="C41" s="3">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="9">
         <v>6.25E-2</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="E46" s="13">
+      <c r="E46" s="19">
         <v>0.23958333333333334</v>
       </c>
-      <c r="F46" s="19"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>3.125E-2</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="16">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="5">
         <v>3.125E-2</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="E51" s="13">
+      <c r="E51" s="19">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F51" s="19"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="16">
         <v>6.25E-2</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="E55" s="13">
+      <c r="E55" s="19">
         <v>6.25E-2</v>
       </c>
-      <c r="F55" s="19"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="16">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="E59" s="13">
+      <c r="E59" s="19">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F59" s="33"/>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="33"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="33"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="33"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="16">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="33"/>
+      <c r="C63" s="17"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="E65" s="13">
+      <c r="E65" s="19">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F65" s="19"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A32:C32"/>
@@ -1598,21 +1601,24 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Task</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Ads logic build in</t>
+  </si>
+  <si>
+    <t>Pack textures</t>
   </si>
 </sst>
 </file>
@@ -792,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,12 +1280,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C39" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0.24305555555555555</v>
-      </c>
-      <c r="F39" s="22"/>
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="F39" s="29">
+        <v>0.19722222222222222</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -1294,8 +1299,8 @@
       <c r="C40" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1307,8 +1312,8 @@
       <c r="C41" s="3">
         <v>0.11041666666666666</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="22"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1317,9 +1322,11 @@
       <c r="B42" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="22"/>
+      <c r="C42" s="6">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -1328,195 +1335,205 @@
       <c r="B43" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="22"/>
+      <c r="C43" s="6">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="9">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="22"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="E46" s="19">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="F46" s="22"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>3.125E-2</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="E47" s="20"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0.23958333333333334</v>
+      </c>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2.4305555555555556E-2</v>
+      </c>
       <c r="E48" s="20"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="16">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C49" s="17"/>
+      <c r="A49" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="E49" s="20"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>3.125E-2</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="E51" s="19">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="F51" s="22"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="E52" s="19">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B53" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="16">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="2"/>
       <c r="E53" s="20"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="16">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="E55" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F55" s="22"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="19">
+        <v>6.25E-2</v>
+      </c>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="16">
+      <c r="A57" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="2"/>
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="E59" s="19">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F59" s="21"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="E60" s="20"/>
+      <c r="E60" s="19">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="20"/>
@@ -1524,56 +1541,67 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="16">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C63" s="17"/>
+      <c r="A63" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="E65" s="19">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="F65" s="22"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="E66" s="19">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B67" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="22"/>
+      <c r="C67" s="2"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -1602,23 +1630,23 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -436,7 +436,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,54 +463,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -798,7 +800,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,11 +822,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -836,13 +838,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="30">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="28" t="s">
         <v>34</v>
       </c>
     </row>
@@ -856,9 +858,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -870,9 +872,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -884,9 +886,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -898,9 +900,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -912,16 +914,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -933,10 +935,10 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="30">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
@@ -950,8 +952,8 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -963,15 +965,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -983,10 +985,10 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="30">
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
@@ -1000,8 +1002,8 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1013,15 +1015,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1041,11 +1043,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1057,10 +1059,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="20">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -1074,15 +1076,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1092,10 +1094,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="E23" s="31">
+      <c r="E23" s="25">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="22">
         <v>3.4027777777777775E-2</v>
       </c>
     </row>
@@ -1109,8 +1111,8 @@
       <c r="C24" s="6">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1122,8 +1124,8 @@
       <c r="C25" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1133,8 +1135,8 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1144,8 +1146,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1157,8 +1159,8 @@
       <c r="C28" s="3">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1170,15 +1172,15 @@
       <c r="C29" s="6">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1198,11 +1200,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1214,10 +1216,10 @@
       <c r="C33" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="22">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -1231,15 +1233,15 @@
       <c r="C34" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1249,10 +1251,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1261,16 +1263,18 @@
       <c r="B37" s="9">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="22"/>
+      <c r="C37" s="34">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -1282,10 +1286,10 @@
       <c r="C39" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="25">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="22">
         <v>0.19722222222222222</v>
       </c>
     </row>
@@ -1299,8 +1303,8 @@
       <c r="C40" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1312,8 +1316,8 @@
       <c r="C41" s="3">
         <v>0.11041666666666666</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1325,8 +1329,8 @@
       <c r="C42" s="6">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -1338,8 +1342,8 @@
       <c r="C43" s="6">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -1351,8 +1355,8 @@
       <c r="C44" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -1364,15 +1368,15 @@
       <c r="C45" s="6">
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1384,10 +1388,12 @@
       <c r="C47" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="18">
         <v>0.23958333333333334</v>
       </c>
-      <c r="F47" s="22"/>
+      <c r="F47" s="22">
+        <v>0.1361111111111111</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -1399,8 +1405,8 @@
       <c r="C48" s="6">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1409,9 +1415,11 @@
       <c r="B49" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="22"/>
+      <c r="C49" s="6">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -1420,16 +1428,18 @@
       <c r="B50" s="16">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="22"/>
+      <c r="C50" s="35">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -1438,11 +1448,13 @@
       <c r="B52" s="5">
         <v>3.125E-2</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="E52" s="19">
+      <c r="C52" s="6">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E52" s="18">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F52" s="22"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
@@ -1452,8 +1464,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="22"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -1463,15 +1475,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="22"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -1481,10 +1493,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <v>6.25E-2</v>
       </c>
-      <c r="F56" s="22"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
@@ -1494,8 +1506,8 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="22"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
@@ -1505,15 +1517,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C58" s="17"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="22"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
@@ -1523,10 +1535,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="E60" s="19">
+      <c r="E60" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F60" s="21"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -1536,8 +1548,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -1547,8 +1559,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -1558,8 +1570,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -1569,15 +1581,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C64" s="17"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
@@ -1587,10 +1599,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="E66" s="19">
+      <c r="E66" s="18">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F66" s="22"/>
+      <c r="F66" s="24"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1600,26 +1612,29 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A32:C32"/>
@@ -1629,24 +1644,21 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -463,56 +463,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -800,7 +800,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,11 +822,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -838,13 +838,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="21">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="32">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="30" t="s">
         <v>34</v>
       </c>
     </row>
@@ -858,9 +858,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -872,9 +872,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -886,9 +886,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -900,9 +900,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -914,16 +914,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="29"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -935,10 +935,10 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="32">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
@@ -952,8 +952,8 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -965,15 +965,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -985,10 +985,10 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="32">
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
@@ -1002,8 +1002,8 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1015,15 +1015,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="31"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1043,11 +1043,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1059,10 +1059,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="34">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -1076,15 +1076,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1094,10 +1094,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="E23" s="25">
+      <c r="E23" s="27">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="25">
         <v>3.4027777777777775E-2</v>
       </c>
     </row>
@@ -1111,8 +1111,8 @@
       <c r="C24" s="6">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1124,8 +1124,8 @@
       <c r="C25" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="23"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1135,8 +1135,8 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1146,8 +1146,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1159,8 +1159,8 @@
       <c r="C28" s="3">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1172,15 +1172,15 @@
       <c r="C29" s="6">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1200,11 +1200,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1216,10 +1216,10 @@
       <c r="C33" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="21">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="25">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -1233,15 +1233,15 @@
       <c r="C34" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1251,7 +1251,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="18">
+      <c r="E36" s="21">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="F36" s="24"/>
@@ -1263,18 +1263,18 @@
       <c r="B37" s="9">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -1286,10 +1286,10 @@
       <c r="C39" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="27">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="25">
         <v>0.19722222222222222</v>
       </c>
     </row>
@@ -1303,8 +1303,8 @@
       <c r="C40" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="23"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1316,8 +1316,8 @@
       <c r="C41" s="3">
         <v>0.11041666666666666</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1329,8 +1329,8 @@
       <c r="C42" s="6">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -1342,8 +1342,8 @@
       <c r="C43" s="6">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="23"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -1355,8 +1355,8 @@
       <c r="C44" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="23"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -1368,15 +1368,15 @@
       <c r="C45" s="6">
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="23"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1388,10 +1388,10 @@
       <c r="C47" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="21">
         <v>0.23958333333333334</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="25">
         <v>0.1361111111111111</v>
       </c>
     </row>
@@ -1405,8 +1405,8 @@
       <c r="C48" s="6">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="23"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1418,8 +1418,8 @@
       <c r="C49" s="6">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="23"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -1428,18 +1428,18 @@
       <c r="B50" s="16">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="19">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="23"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -1451,7 +1451,7 @@
       <c r="C52" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="21">
         <v>0.13541666666666666</v>
       </c>
       <c r="F52" s="24"/>
@@ -1464,7 +1464,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="E53" s="19"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,15 +1475,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="E54" s="19"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -1493,7 +1493,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="E56" s="18">
+      <c r="E56" s="21">
         <v>6.25E-2</v>
       </c>
       <c r="F56" s="24"/>
@@ -1506,7 +1506,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="E57" s="19"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,15 +1517,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C58" s="17"/>
-      <c r="E58" s="19"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
@@ -1535,10 +1535,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="E60" s="18">
+      <c r="E60" s="21">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F60" s="33"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -1548,8 +1548,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="33"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -1559,8 +1559,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="33"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -1570,8 +1570,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="33"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -1581,15 +1581,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C64" s="17"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="33"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
@@ -1599,7 +1599,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="E66" s="18">
+      <c r="E66" s="21">
         <v>0.10416666666666667</v>
       </c>
       <c r="F66" s="24"/>
@@ -1612,29 +1612,26 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="E67" s="19"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A32:C32"/>
@@ -1644,21 +1641,24 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -465,52 +465,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,7 +800,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="F56" sqref="F56:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,11 +822,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -838,7 +838,7 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>0.52777777777777779</v>
       </c>
       <c r="F3" s="32">
@@ -858,7 +858,7 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="33"/>
       <c r="G4" s="31"/>
     </row>
@@ -872,7 +872,7 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="33"/>
       <c r="G5" s="31"/>
     </row>
@@ -886,7 +886,7 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="33"/>
       <c r="G6" s="31"/>
     </row>
@@ -900,7 +900,7 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="33"/>
       <c r="G7" s="31"/>
     </row>
@@ -914,16 +914,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -935,7 +935,7 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F10" s="32">
@@ -952,7 +952,7 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,15 +965,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -985,7 +985,7 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="32">
@@ -1002,7 +1002,7 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,15 +1015,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1043,11 +1043,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1059,10 +1059,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="22">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -1076,15 +1076,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1095,10 +1095,10 @@
       </c>
       <c r="C23" s="12"/>
       <c r="E23" s="27">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F23" s="25">
-        <v>3.4027777777777775E-2</v>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="F23" s="24">
+        <v>4.7916666666666663E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1125,7 +1125,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="26"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1134,9 +1134,11 @@
       <c r="B26" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1147,7 +1149,7 @@
       </c>
       <c r="C27" s="12"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="26"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1160,7 +1162,7 @@
         <v>1.8055555555555557E-2</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="26"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1173,14 +1175,14 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="26"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1200,11 +1202,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1216,10 +1218,10 @@
       <c r="C33" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -1233,15 +1235,15 @@
       <c r="C34" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1251,10 +1253,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F36" s="24"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1266,15 +1268,15 @@
       <c r="C37" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -1289,7 +1291,7 @@
       <c r="E39" s="27">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="24">
         <v>0.19722222222222222</v>
       </c>
     </row>
@@ -1304,7 +1306,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E40" s="28"/>
-      <c r="F40" s="26"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1317,7 +1319,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="E41" s="28"/>
-      <c r="F41" s="26"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1330,7 +1332,7 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="E42" s="28"/>
-      <c r="F42" s="26"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -1343,7 +1345,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="E43" s="28"/>
-      <c r="F43" s="26"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -1356,7 +1358,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="E44" s="28"/>
-      <c r="F44" s="26"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -1369,14 +1371,14 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="E45" s="29"/>
-      <c r="F45" s="26"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1388,10 +1390,10 @@
       <c r="C47" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>0.23958333333333334</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="24">
         <v>0.1361111111111111</v>
       </c>
     </row>
@@ -1405,8 +1407,8 @@
       <c r="C48" s="6">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="26"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1418,8 +1420,8 @@
       <c r="C49" s="6">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="26"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -1431,15 +1433,15 @@
       <c r="C50" s="19">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="26"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -1451,10 +1453,10 @@
       <c r="C52" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
@@ -1463,9 +1465,11 @@
       <c r="B53" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="24"/>
+      <c r="C53" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -1475,15 +1479,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="24"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -1492,11 +1496,13 @@
       <c r="B56" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="E56" s="21">
+      <c r="C56" s="3">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E56" s="20">
         <v>6.25E-2</v>
       </c>
-      <c r="F56" s="24"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
@@ -1505,9 +1511,11 @@
       <c r="B57" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="24"/>
+      <c r="C57" s="3">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
@@ -1517,15 +1525,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C58" s="17"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="24"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
@@ -1535,10 +1543,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -1548,8 +1556,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -1559,8 +1567,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -1570,8 +1578,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -1581,15 +1589,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C64" s="17"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
@@ -1598,11 +1606,13 @@
       <c r="B66" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="E66" s="21">
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="20">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F66" s="24"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1612,26 +1622,29 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="24"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A32:C32"/>
@@ -1641,24 +1654,21 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -436,7 +436,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,52 +465,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,11 +828,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -838,7 +844,7 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="21">
         <v>0.52777777777777779</v>
       </c>
       <c r="F3" s="32">
@@ -858,7 +864,7 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="33"/>
       <c r="G4" s="31"/>
     </row>
@@ -872,7 +878,7 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="33"/>
       <c r="G5" s="31"/>
     </row>
@@ -886,7 +892,7 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="33"/>
       <c r="G6" s="31"/>
     </row>
@@ -900,7 +906,7 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="33"/>
       <c r="G7" s="31"/>
     </row>
@@ -914,16 +920,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -935,7 +941,7 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F10" s="32">
@@ -952,7 +958,7 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,15 +971,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -985,7 +991,7 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="32">
@@ -1002,7 +1008,7 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,15 +1021,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1043,11 +1049,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1059,10 +1065,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="34">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -1076,15 +1082,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1097,7 +1103,7 @@
       <c r="E23" s="27">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="25">
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
@@ -1112,7 +1118,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1125,7 +1131,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1138,7 +1144,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1149,7 +1155,7 @@
       </c>
       <c r="C27" s="12"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1162,7 +1168,7 @@
         <v>1.8055555555555557E-2</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1175,14 +1181,14 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1202,11 +1208,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1218,10 +1224,10 @@
       <c r="C33" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="21">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="25">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -1235,15 +1241,15 @@
       <c r="C34" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1253,10 +1259,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="E36" s="20">
+      <c r="E36" s="21">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1268,15 +1274,15 @@
       <c r="C37" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -1291,7 +1297,7 @@
       <c r="E39" s="27">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="25">
         <v>0.19722222222222222</v>
       </c>
     </row>
@@ -1306,7 +1312,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E40" s="28"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1319,7 +1325,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="E41" s="28"/>
-      <c r="F41" s="25"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1332,7 +1338,7 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="E42" s="28"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -1345,7 +1351,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="E43" s="28"/>
-      <c r="F43" s="25"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -1358,7 +1364,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="E44" s="28"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -1371,14 +1377,14 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="E45" s="29"/>
-      <c r="F45" s="25"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1390,10 +1396,10 @@
       <c r="C47" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="21">
         <v>0.23958333333333334</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="25">
         <v>0.1361111111111111</v>
       </c>
     </row>
@@ -1407,8 +1413,8 @@
       <c r="C48" s="6">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="25"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1420,8 +1426,8 @@
       <c r="C49" s="6">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="25"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -1433,15 +1439,15 @@
       <c r="C50" s="19">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="25"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -1453,10 +1459,10 @@
       <c r="C52" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="21">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F52" s="26"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
@@ -1468,8 +1474,8 @@
       <c r="C53" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="26"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -1479,15 +1485,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="26"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -1499,10 +1505,12 @@
       <c r="C56" s="3">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="21">
         <v>6.25E-2</v>
       </c>
-      <c r="F56" s="26"/>
+      <c r="F56" s="36">
+        <v>9.0972222222222218E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
@@ -1514,8 +1522,8 @@
       <c r="C57" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="26"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="37"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
@@ -1524,16 +1532,18 @@
       <c r="B58" s="16">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="26"/>
+      <c r="C58" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="37"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
@@ -1543,10 +1553,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="E60" s="20">
+      <c r="E60" s="21">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F60" s="35"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -1556,8 +1566,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="35"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -1567,8 +1577,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="35"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -1578,8 +1588,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="35"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -1589,30 +1599,28 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C64" s="17"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="35"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="E66" s="20">
+      <c r="C66" s="2"/>
+      <c r="E66" s="21">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F66" s="26"/>
+      <c r="F66" s="24"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1622,29 +1630,26 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="26"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A32:C32"/>
@@ -1654,21 +1659,24 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimate.xlsx
+++ b/Estimate.xlsx
@@ -436,7 +436,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,60 +463,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,11 +827,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -844,13 +843,13 @@
       <c r="C3" s="3">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>0.52777777777777779</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>0.4861111111111111</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -864,9 +863,9 @@
       <c r="C4" s="7">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -878,9 +877,9 @@
       <c r="C5" s="3">
         <v>0.10208333333333335</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -892,9 +891,9 @@
       <c r="C6" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -906,9 +905,9 @@
       <c r="C7" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -920,16 +919,16 @@
       <c r="C8" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -941,10 +940,10 @@
       <c r="C10" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
@@ -958,8 +957,8 @@
       <c r="C11" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -971,15 +970,15 @@
       <c r="C12" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -991,10 +990,10 @@
       <c r="C14" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
@@ -1008,8 +1007,8 @@
       <c r="C15" s="6">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1021,15 +1020,15 @@
       <c r="C16" s="3">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1049,11 +1048,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1065,10 +1064,10 @@
       <c r="C20" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="21">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -1082,15 +1081,15 @@
       <c r="C21" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1100,10 +1099,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
@@ -1117,8 +1116,8 @@
       <c r="C24" s="6">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1130,8 +1129,8 @@
       <c r="C25" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1143,8 +1142,8 @@
       <c r="C26" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1154,8 +1153,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1167,8 +1166,8 @@
       <c r="C28" s="3">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1180,15 +1179,15 @@
       <c r="C29" s="6">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="26"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1208,11 +1207,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1224,10 +1223,10 @@
       <c r="C33" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="23">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -1241,15 +1240,15 @@
       <c r="C34" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1258,11 +1257,13 @@
       <c r="B36" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="E36" s="21">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="F36" s="24"/>
+      <c r="C36" s="12"/>
+      <c r="E36" s="19">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F36" s="23">
+        <v>1.3888888888888888E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1271,18 +1272,18 @@
       <c r="B37" s="9">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -1294,10 +1295,10 @@
       <c r="C39" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <v>0.2638888888888889</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="23">
         <v>0.19722222222222222</v>
       </c>
     </row>
@@ -1311,8 +1312,8 @@
       <c r="C40" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1324,8 +1325,8 @@
       <c r="C41" s="3">
         <v>0.11041666666666666</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -1337,8 +1338,8 @@
       <c r="C42" s="6">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -1350,8 +1351,8 @@
       <c r="C43" s="6">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -1363,8 +1364,8 @@
       <c r="C44" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -1376,15 +1377,15 @@
       <c r="C45" s="6">
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="26"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1396,10 +1397,10 @@
       <c r="C47" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
         <v>0.23958333333333334</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="23">
         <v>0.1361111111111111</v>
       </c>
     </row>
@@ -1413,8 +1414,8 @@
       <c r="C48" s="6">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="26"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1426,8 +1427,8 @@
       <c r="C49" s="6">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="26"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -1436,18 +1437,18 @@
       <c r="B50" s="16">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="26"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -1459,10 +1460,10 @@
       <c r="C52" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
@@ -1474,8 +1475,8 @@
       <c r="C53" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="24"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -1485,15 +1486,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="24"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -1505,10 +1506,10 @@
       <c r="C56" s="3">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="19">
         <v>6.25E-2</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="34">
         <v>9.0972222222222218E-2</v>
       </c>
     </row>
@@ -1522,8 +1523,8 @@
       <c r="C57" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="37"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
@@ -1532,18 +1533,18 @@
       <c r="B58" s="16">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="35"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
@@ -1553,10 +1554,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="E60" s="21">
+      <c r="E60" s="19">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="36"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -1566,8 +1567,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="36"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -1577,8 +1578,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -1588,8 +1589,8 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -1599,15 +1600,15 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C64" s="17"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="36"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
@@ -1617,10 +1618,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="E66" s="21">
+      <c r="E66" s="19">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F66" s="24"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1630,26 +1631,29 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="24"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A32:C32"/>
@@ -1659,24 +1663,21 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F23:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
